--- a/Academic_Programs_Template.xlsx
+++ b/Academic_Programs_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EEE\Documents\GitHub\academic-activity-portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silic\Documents\GitHub\academic-activity-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA79ABDD-2DAB-4CF2-BB8A-DCE6DDC19726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0760A9-AD1A-45D1-9EFB-9300925F207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>Program Type</t>
   </si>
@@ -53,9 +53,6 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>Workshops (2 Sessions - Full Fay)</t>
-  </si>
-  <si>
     <t>Workshops (3 Sessions - One and Half Day)</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Guest Lectures</t>
   </si>
   <si>
-    <t>Hackathons (Only for CSE &amp; Allied)</t>
-  </si>
-  <si>
     <t>Coding Competitions /Technical Competitions</t>
   </si>
   <si>
@@ -141,6 +135,18 @@
   </si>
   <si>
     <t>CSE, INF, CSM, CSD</t>
+  </si>
+  <si>
+    <t>Budget Mode</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Workshops (2 Sessions - Full Day)</t>
   </si>
 </sst>
 </file>
@@ -508,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,10 +525,11 @@
     <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,275 +543,378 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
